--- a/reddit_results.xlsx
+++ b/reddit_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,450 +451,575 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Upvotes</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Subreddit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pagerank</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Click the link in her bio. I love you cats, too funny. </t>
+          <t>so amaz seen funni cat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/thefighterandthekid/comments/1hno25e/click_the_link_in_her_bio_i_love_you_cats_too/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1ho3zje/so_amazing_seen_this_funny_cats/</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>173</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>thefighterandthekid</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aww_gifs</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Funny cat</t>
+          <t>funni cat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/funnygifs/comments/1ho8f0w/funny_cat/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1hnswm1/funny_cats/</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>funnygifs</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>aww_gifs</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>He really likes watching funny cat videos with me</t>
+          <t>funni big cat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/cats/comments/1ho95mv/he_really_likes_watching_funny_cat_videos_with_me/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1hnpjgj/funny_big_cats/</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>cats</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>aww_gifs</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funny cats </t>
+          <t>funni amaz seen cat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1hnswm1/funny_cats/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1hnpjxd/funny_amazing_seen_cat/</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>aww_gifs</t>
         </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funny big cats </t>
+          <t>funni cat princ cat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1hnpjgj/funny_big_cats/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1ho79h7/funny_cats_prince_of_cats/</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>aww_gifs</t>
         </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">So amazing seen this funny cats </t>
+          <t>funni cat princ intermedi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1ho3zje/so_amazing_seen_this_funny_cats/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1ho41ys/funny_cats_prince_intermediate/</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>aww_gifs</t>
         </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Funny amazing seen cat</t>
+          <t>funni cat about</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1hnpjxd/funny_amazing_seen_cat/</t>
+          <t>https://reddit.com/r/aww_gifs/comments/1ho411u/funny_cats_about/</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>aww_gifs</t>
         </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02857424244398575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funny cats prince of cats </t>
+          <t>click link her bio love cat too funni</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1ho79h7/funny_cats_prince_of_cats/</t>
+          <t>https://reddit.com/r/thefighterandthekid/comments/1hno25e/click_the_link_in_her_bio_i_love_you_cats_too/</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>aww_gifs</t>
-        </is>
+        <v>177</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>thefighterandthekid</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funny cats prince intermediate </t>
+          <t>know suppos joke how heck did san get lamp that conveni shape like frisk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1ho41ys/funny_cats_prince_intermediate/</t>
+          <t>https://reddit.com/r/Undertale/comments/1ho9s84/i_know_this_is_supposed_to_be_a_joke_but_how_the/</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>aww_gifs</t>
-        </is>
+        <v>198</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Undertale</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Funny cats about </t>
+          <t>who rememb one charact design strikingli resembl hatsun miku appear battl cat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/aww_gifs/comments/1ho411u/funny_cats_about/</t>
+          <t>https://reddit.com/r/hatsune/comments/1hnqq1s/who_remembers_that_one_characters_design_that/</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>aww_gifs</t>
-        </is>
+        <v>308</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>hatsune</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Very convincing, ain't it?</t>
+          <t>which bad movi alreadi knew it go bad il start</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Took this from r/cats. Found funny :)</t>
+          <t>watch trailer first time when 10 hate</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/FunnyAnimals/comments/1ho5zss/very_convincing_aint_it/</t>
+          <t>https://reddit.com/r/moviecritic/comments/1hnnc7z/which_bad_movie_you_already_knew_its_going_to_be/</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1404</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FunnyAnimals</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>moviecritic</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>my boy Dude who saved my life this year, here's to 2025!</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dude has been a great company, what are the odds that he needed a home and I was looking for a buddy?? He is perfect for me and I am so grateful we found each other. I met him when he was a kitten, but it was a different time and I wasn't even thinking of getting a cat. My world went to shit, and since I couldn't take my family dogs with me, I wanted a cat who was looking for a home. Turns out, my grandma was looking for a home for him because she is moving to Asia (or moving back). Dude has been the sweetest cat, perfect for me. He is too sweet. I am used to having dogs, and I also get zoomies too because of excitement (I am 24 but I get overwhelmed with cuteness from my pets LOLLL). I have scared him a few times when we play where I let out an excited squeak or scream as I do with my dogs. He has hid from me many times, and I feel so bad. I have had him for 4 months and we are both learning together. We cuddle but he is a distant cuddler where he is close but not too close. I make mistakes of pulling him closer and he gently bites me. He has never showed signs of aggression and a very gentle giant. He is a long boi. Funny story, I always asked my ex if we can get a cat because I know they bring me comfort and safety. He always refused saying it was hard to care for one. Look at me now🥲 I am so excited and grateful to have Dude. I have friends who come and see him because they are also stressed from university and he has been an emotional support cat for many. 10/10 would pet and 10/10 would adopt another cat once I can afford it and finish my degree!! I love tabbies and my family has two other tabbies and I love them so much!</t>
-        </is>
-      </c>
+          <t>hhspaksklsosjdlspspplsn</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/TabbyCats/comments/1hnrjsw/my_boy_dude_who_saved_my_life_this_year_heres_to/</t>
+          <t>https://reddit.com/r/sssdfg/comments/1ho8w9m/hhspaksklsosjdlspspplsn/</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>956</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TabbyCats</t>
-        </is>
+        <v>228</v>
+      </c>
+      <c r="E13" t="n">
+        <v>43</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sssdfg</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>What is this animal called?</t>
+          <t>about catch these bap human</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/australianwildlife/comments/1hny4a6/what_is_this_animal_called/</t>
+          <t>https://reddit.com/r/funnycats/comments/1hnyvm4/you_about_to_catch_these_baps_human/</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>194</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>australianwildlife</t>
-        </is>
+        <v>537</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>funnycats</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>feeling motivated😅</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>veri convinc aint</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>took rcat found funni</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/FunnyDogVideos/comments/1ho6p5y/feeling_motivated/</t>
+          <t>https://reddit.com/r/FunnyAnimals/comments/1ho5zss/very_convincing_aint_it/</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>FunnyDogVideos</t>
-        </is>
+        <v>1704</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FunnyAnimals</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Which bad movie you already knew its going to be bad? I"l start:</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>I watched the trailer for the first time when I was 10 and hated it</t>
-        </is>
-      </c>
+          <t>feel motiv</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/moviecritic/comments/1hnnc7z/which_bad_movie_you_already_knew_its_going_to_be/</t>
+          <t>https://reddit.com/r/FunnyDogVideos/comments/1ho6p5y/feeling_motivated/</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>moviecritic</t>
-        </is>
+        <v>1256</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FunnyDogVideos</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Who remembers that one character's design that strikingly resembles Hatsune Miku (That appears in The Battle Cats.)</t>
+          <t>what anim call</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/hatsune/comments/1hnqq1s/who_remembers_that_one_characters_design_that/</t>
+          <t>https://reddit.com/r/australianwildlife/comments/1hny4a6/what_is_this_animal_called/</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>303</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>hatsune</t>
-        </is>
+        <v>202</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>australianwildlife</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cats are evil</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>boy dude who save life year here 2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dude been great compani what odd need home look buddi perfect am so grate found each other met him when kitten differ time wasnt even think get cat world went shit sinc couldnt take famili dog want cat who look home turn out grandma look home him becaus move asia move back dude been sweetest cat perfect too sweet am use have dog also get zoomi too becaus excit am 24 get overwhelm cute pet lolll scare him few time when play where let out excit squeak scream do dog hid mani time feel so bad him 4 month both learn togeth cuddl distant cuddler where close too close make mistak pull him closer gentli bite never show sign aggress veri gentl giant long boi funni stori alway ask ex if can get cat becaus know bring comfort safeti alway refus say hard care one look now am so excit grate dude friend who come see him becaus also stress univers been emot support cat mani 1010 would pet 1010 would adopt anoth cat onc can afford finish degre love tabbi famili two other tabbi love them so much</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/fixedbytheduet/comments/1hnnbtw/cats_are_evil/</t>
+          <t>https://reddit.com/r/TabbyCats/comments/1hnrjsw/my_boy_dude_who_saved_my_life_this_year_heres_to/</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>285</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>fixedbytheduet</t>
-        </is>
+        <v>972</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TabbyCats</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Puck be like!</t>
+          <t>funni cat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/ReZero/comments/1hnwyzf/puck_be_like/</t>
+          <t>https://reddit.com/r/funnygifs/comments/1ho8f0w/funny_cat/</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>337</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ReZero</t>
-        </is>
+        <v>72</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>funnygifs</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Love you too silver 😻🥹</t>
+          <t>realli like watch funni cat video</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/StardewValley/comments/1hnngix/love_you_too_silver/</t>
+          <t>https://reddit.com/r/cats/comments/1ho95mv/he_really_likes_watching_funny_cat_videos_with_me/</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>201</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>StardewValley</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>cats</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you were the last person on earth, would you survive? </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Say a meteor wipes out the entire human population, except for one person. Everything is left behind—homes, grocery stores, and everything else humans need to survive. Would the survivor live for the rest of their life span? Or would loneliness kill them? </t>
-        </is>
-      </c>
+          <t>cat evil</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://reddit.com/r/hypotheticalsituation/comments/1ho09dm/if_you_were_the_last_person_on_earth_would_you/</t>
+          <t>https://reddit.com/r/fixedbytheduet/comments/1hnnbtw/cats_are_evil/</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>hypotheticalsituation</t>
-        </is>
+        <v>286</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>fixedbytheduet</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.007500000000000001</v>
       </c>
     </row>
   </sheetData>
